--- a/sleep_stats.xlsx
+++ b/sleep_stats.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,17 +440,27 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>start_time</t>
+          <t>Начало сна</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>end_time</t>
+          <t>Комментарий к началу сна</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>formatted_duration</t>
+          <t>Конец сна</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Комментарий к окончанию сна</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Длительность сна</t>
         </is>
       </c>
     </row>
@@ -458,10 +468,20 @@
       <c r="A2" s="2" t="n">
         <v>45758.03795582557</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>сон</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n">
         <v>45758.03842761676</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Без комментария</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>0:00</t>
         </is>
@@ -471,10 +491,20 @@
       <c r="A3" s="2" t="n">
         <v>45758.03795582557</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>сон</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="n">
         <v>45758.03842761676</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>коментарий 3</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>0:00</t>
         </is>
@@ -484,10 +514,20 @@
       <c r="A4" s="2" t="n">
         <v>45758.05389965433</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ЧТО ДАЛЬШЕ</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="n">
         <v>45758.05434653472</v>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Без комментария</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>0:00</t>
         </is>
@@ -497,12 +537,91 @@
       <c r="A5" s="2" t="n">
         <v>45758.05389965433</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ЧТО ДАЛЬШЕ</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="n">
         <v>45758.05434653472</v>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>yt ye;yj</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>0:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45758.07431912096</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Без комментария</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>45758.07455968617</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Без комментария</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45758.07431912096</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Без комментария</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>45758.07475136116</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Без комментария</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45758.08406339637</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>не хочу</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>45758.08544063685</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Без комментария</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0:01</t>
         </is>
       </c>
     </row>

--- a/sleep_stats.xlsx
+++ b/sleep_stats.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -625,6 +625,167 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45758.10536404912</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Без комментария</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>45758.1055202625</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Без комментария</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45758.11426772221</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>мисчаи</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>45758.11488995556</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Без комментария</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45758.12190713025</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>45758.12222735918</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Без комментария</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45758.1298787522</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Без комментария</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>45758.13009272415</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Без комментария</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45758.13035433106</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Без комментария</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>45758.13048038215</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Без комментария</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45758.1344449725</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Без комментария</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>45758.13452718908</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Без комментария</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45758.13520988354</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Без комментария</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>45758.13527437991</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Без комментария</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0:00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/sleep_stats.xlsx
+++ b/sleep_stats.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -786,6 +786,121 @@
         </is>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45758.14034574972</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Без комментария</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>45758.14043630199</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>fdfdf</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45758.14379343001</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>234567</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>45758.14389974781</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Без комментария</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45758.14487095177</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Без комментария</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>45758.14493959185</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Без комментария</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45758.14502932477</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>5432</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>45758.1451029034</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>432</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45758.41051661525</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Без комментария</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>45758.4114863647</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Тестовый комментарий</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0:01</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
